--- a/app/docs/chromeAppAPI.xlsx
+++ b/app/docs/chromeAppAPI.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Функция</t>
   </si>
@@ -62,9 +62,6 @@
     <t>connectTo</t>
   </si>
   <si>
-    <t>isConnect</t>
-  </si>
-  <si>
     <t>getFunctions</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>название утройства, функция, параметры</t>
-  </si>
-  <si>
-    <t>название устройства, результат выполнения</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>connectionId</t>
   </si>
   <si>
-    <t>apimsg:{"evtDest":"isConnect","data":{"alias":"wesi"}}</t>
-  </si>
-  <si>
     <t>getPorts</t>
   </si>
   <si>
@@ -129,6 +117,24 @@
   </si>
   <si>
     <t>Получить список портов</t>
+  </si>
+  <si>
+    <t>isConnected</t>
+  </si>
+  <si>
+    <t>apimsg:{"evtDest":"isConnected","data":{"alias":"wesi"}}</t>
+  </si>
+  <si>
+    <t>apimsg:{"evtDest":"go","data":{"alias":"wesi","method":"get_weight"}}</t>
+  </si>
+  <si>
+    <t>apimsg:{"evtDest":"getFunctions","data":{"alias":"wesi"}}</t>
+  </si>
+  <si>
+    <t>массив с именами доступных методов</t>
+  </si>
+  <si>
+    <t>результат</t>
   </si>
 </sst>
 </file>
@@ -197,10 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -510,7 +515,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,82 +541,82 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -619,55 +624,65 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
